--- a/biology/Zoologie/Art_animalier/Art_animalier.xlsx
+++ b/biology/Zoologie/Art_animalier/Art_animalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'art animalier est une forme d'art plus ou moins figuratif, décoratif et/ou symbolique, dans laquelle le thème principal est un animal, ou des animaux.
 Les premières formes artistiques peintes et dessinées par l'homme (dites rupestre) comportent de nombreuses figure d'animaux préhistoriques. L'art animalier est ensuite représenté par des hiéroglyphes, des sceaux, des monnaies, des décorations murales, des tissus, des vêtements, des tatouages, des totems…
@@ -512,7 +524,9 @@
           <t>Préhistoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rhinocéros laineux (fresque pariétale,  grotte Chauvet).
@@ -549,17 +563,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Art gréco-romain
+          <t>Art gréco-romain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Rhyton, IVe siècle av. J.-C..
 			Poulpe mycénien d'Argolide (Musée d'Athènes)
 			Chien, art hellénistique.
 			Oiseaux sur un skyphos de Chypre, IIe siècle av. J.-C..
 			Cheval ailé, VIe siècle av. J.-C., Grèce.
-Art celte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Art celte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Enseigne gauloise de Soulac
 			Casque-« cygne » de Tintignac.
 			Serpent parisien sur une monnaie (Musée Carnavalet).
-Moyen-Âge
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Moyen-Âge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			La Licorne captive, Tapisserie de la série de La Chasse à la licorne, vers 1500.
 			Page du Bestiaire d'Aberdeen (XIIe siècle).
 			Tétramorphe sur le tympan du clocher-porche de la Basilique Saint-Martin d'Ainay, Lyon.
@@ -568,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Arts musulmans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dragon.
@@ -603,31 +697,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Art des steppes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cheval attaqué par un tigre, art de la culture de l'Ordos, IVe siècle av. J.-C.
@@ -637,42 +733,120 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Asie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chine
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Palefrenier menant deux chevaux, par Han Gan.
 			Oies sauvages (1730).
 			Crapaud à trois pattes (Dynastie Qing)
-Inde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Inde</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Statue représentant Ganesh.
 			Barque à tête de taureau, civilisation de l'Indus.
 			Bélier, 1625-1650.
 			Sculpture d'Hanumān (Pushkar).
-Japon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Môle représentée par l'art traditionnel aïnou.
 			Shachihoko.
 			Kitsune au Takinoo-jinja.
@@ -681,38 +855,80 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Égypte
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Égypte</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Poisson oxyrhynque du Nil, art égyptien (Musée égyptologique de Turin).
 			Hippopotame couvert de plantes aquatiques (faïence égyptienne, moyen Empire, v. 1750-1650, Musée du Louvre).
 			Chat attaquant des oiseaux (art de l'Égypte antique, tombe de Nebamon, Musée égyptien du Caire).
 			Anubis, à tête de canidé.
-Art africain traditionnel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Art africain traditionnel</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Caméléon, masque burkinabé.
 			Buffle, masque du Cameroun.
 			Bouc, masque burkinabé.
@@ -720,31 +936,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Amériques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jaguar au Museo Amparo.
@@ -754,33 +972,39 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Océanie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australie
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Chasse au kangourou, abri-sous-roche d'Anbangbang, Parc national de Kakadu.
 			Divers animaux, Parc national de Namadgi.
 			Kangourou, abri-sous-roche d'Anbangbang, Parc national de Kakadu.
@@ -788,31 +1012,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Art moderne et art contemporain</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Artistes animaliers dessinant des fauves au Jardin des Plantes, 1902.
@@ -823,31 +1049,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Illustration naturaliste</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lynx par Jacques de Sève, dans Histoire naturelle, générale et particulière.
@@ -858,31 +1086,33 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Art_animalier</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Art_animalier</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art_animalier</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Photographie animalière</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dauphin commun à bec court
